--- a/artfynd/A 52087-2025 artfynd.xlsx
+++ b/artfynd/A 52087-2025 artfynd.xlsx
@@ -3247,7 +3247,7 @@
         <v>129745850</v>
       </c>
       <c r="B28" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
